--- a/public/app-assets/ImportSamples/1-IndividualStakeholdersImport.xlsx
+++ b/public/app-assets/ImportSamples/1-IndividualStakeholdersImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11745"/>
+    <workbookView windowWidth="28800" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>full_name *</t>
   </si>
@@ -133,10 +133,16 @@
     <t>Director</t>
   </si>
   <si>
+    <t>123456789012364</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>923021122321</t>
   </si>
   <si>
     <t>abc1@xyz.com</t>
@@ -169,6 +175,9 @@
     <t>Zain Ali</t>
   </si>
   <si>
+    <t>1234567890124</t>
+  </si>
+  <si>
     <t>abc2@xyz.com</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
   </si>
   <si>
     <t>Khan</t>
+  </si>
+  <si>
+    <t>1234567890125</t>
   </si>
   <si>
     <t>abc3@xyz.com</t>
@@ -217,6 +229,9 @@
     <t>khan</t>
   </si>
   <si>
+    <t>1234567890126</t>
+  </si>
+  <si>
     <t>abc4@xyz.com</t>
   </si>
   <si>
@@ -240,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -270,10 +285,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,18 +316,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -331,21 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
@@ -354,9 +354,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,22 +407,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,7 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,13 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +479,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,25 +539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,43 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,25 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,9 +708,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,8 +720,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,117 +743,115 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,37 +860,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -903,6 +918,9 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1168,8 +1186,8 @@
   </sheetPr>
   <dimension ref="A1:AI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
@@ -1178,7 +1196,7 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="8.75" customWidth="1"/>
     <col min="8" max="8" width="10.375" customWidth="1"/>
@@ -1190,7 +1208,7 @@
     <col min="15" max="15" width="23.5" customWidth="1"/>
     <col min="16" max="16" width="24.75" customWidth="1"/>
     <col min="17" max="17" width="19.5" customWidth="1"/>
-    <col min="18" max="18" width="22.875" customWidth="1"/>
+    <col min="18" max="18" width="22.25" customWidth="1"/>
     <col min="19" max="19" width="15.875" customWidth="1"/>
     <col min="20" max="20" width="50.5" customWidth="1"/>
     <col min="21" max="21" width="26.25" customWidth="1"/>
@@ -1330,32 +1348,32 @@
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2">
-        <v>123456789012364</v>
+      <c r="E2" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F2" s="2">
         <v>4324324</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="6">
         <v>32883</v>
       </c>
-      <c r="J2" s="2">
-        <v>51223211212</v>
+      <c r="J2" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="K2" s="2">
-        <v>51223211212</v>
+      <c r="K2" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
         <v>45345</v>
@@ -1364,22 +1382,22 @@
         <v>45435</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -1391,24 +1409,24 @@
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:35">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -1419,30 +1437,30 @@
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2">
-        <v>1234567890124</v>
+      <c r="E3" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" s="6">
         <v>32884</v>
       </c>
-      <c r="J3" s="2">
-        <v>51223211212</v>
+      <c r="J3" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="K3" s="2">
-        <v>51223211212</v>
+      <c r="K3" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2">
         <v>3454</v>
@@ -1451,22 +1469,22 @@
         <v>345435</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -1478,27 +1496,27 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:35">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
@@ -1506,30 +1524,30 @@
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2">
-        <v>1234567890125</v>
+      <c r="E4" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I4" s="6">
         <v>32885</v>
       </c>
-      <c r="J4" s="2">
-        <v>51223211212</v>
+      <c r="J4" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="K4" s="2">
-        <v>51223211212</v>
+      <c r="K4" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="N4" s="2">
         <v>34543</v>
@@ -1538,66 +1556,66 @@
         <v>5345</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V4" s="2">
         <v>32434</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
       <c r="AE4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:35">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
@@ -1605,32 +1623,32 @@
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2">
-        <v>1234567890126</v>
+      <c r="E5" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="F5" s="2">
         <v>454456</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I5" s="6">
         <v>32886</v>
       </c>
-      <c r="J5" s="2">
-        <v>51223211212</v>
+      <c r="J5" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="K5" s="2">
-        <v>51223211212</v>
+      <c r="K5" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N5" s="2">
         <v>3454354</v>
@@ -1639,58 +1657,58 @@
         <v>32434</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V5" s="2">
         <v>5345</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:35">

--- a/public/app-assets/ImportSamples/1-IndividualStakeholdersImport.xlsx
+++ b/public/app-assets/ImportSamples/1-IndividualStakeholdersImport.xlsx
@@ -133,7 +133,7 @@
     <t>Director</t>
   </si>
   <si>
-    <t>123456789012364</t>
+    <t>1234567890125</t>
   </si>
   <si>
     <t>no</t>
@@ -175,7 +175,7 @@
     <t>Zain Ali</t>
   </si>
   <si>
-    <t>1234567890124</t>
+    <t>1234567890126</t>
   </si>
   <si>
     <t>abc2@xyz.com</t>
@@ -202,7 +202,7 @@
     <t>Khan</t>
   </si>
   <si>
-    <t>1234567890125</t>
+    <t>1234567890127</t>
   </si>
   <si>
     <t>abc3@xyz.com</t>
@@ -229,7 +229,7 @@
     <t>khan</t>
   </si>
   <si>
-    <t>1234567890126</t>
+    <t>1234567890128</t>
   </si>
   <si>
     <t>abc4@xyz.com</t>
@@ -285,24 +285,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,22 +307,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -346,8 +339,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,8 +368,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,46 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,7 +443,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,103 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,67 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,41 +652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,26 +672,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,153 +694,203 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:AI1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
